--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -5,44 +5,64 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="작업 목록" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet 2" sheetId="2" r:id="rId2"/>
+    <sheet name="작업목록" sheetId="1" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t>string</t>
+    <t>Crydom</t>
   </si>
   <si>
-    <t>제조사들</t>
+    <t>m50_diode_series_power_modules-1370750</t>
+  </si>
+  <si>
+    <t>Hammond</t>
+  </si>
+  <si>
+    <t>101-1390008</t>
+  </si>
+  <si>
+    <t>Heyco</t>
+  </si>
+  <si>
+    <t>10150</t>
+  </si>
+  <si>
+    <t>1030</t>
+  </si>
+  <si>
+    <t>10734</t>
+  </si>
+  <si>
+    <t>1130</t>
+  </si>
+  <si>
+    <t>11501</t>
+  </si>
+  <si>
+    <t>11826</t>
+  </si>
+  <si>
+    <t>1287</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>DS-010005-1670628</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt formatCode="$#,##0.00; ($#,##0.00); -" numFmtId="164"/>
-  </numFmts>
-  <fonts count="3">
+  <fonts count="1">
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0800"/>
-      <name val="Calibri"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFF0800"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
@@ -64,62 +84,106 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf applyFont="1" fontId="0"/>
-    <xf applyFont="1" fontId="1" applyNumberFormat="1" numFmtId="164"/>
-    <xf applyFont="1" fontId="2" applyNumberFormat="1" numFmtId="164"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="50" customWidth="1"/>
+    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="n">
-        <v>100</v>
+    <row r="1" spans="1:2">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="C1" s="1">
-        <f>A1 + B1</f>
-      </c>
-      <c r="D1" s="0" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
+    <row r="2" spans="1:2">
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="2" t="b">
-        <v>true</v>
+    <row r="3" spans="1:2">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>